--- a/DMS/Templates/Direct_Order_Export.xlsx
+++ b/DMS/Templates/Direct_Order_Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CA7478-D79A-4CAE-A493-9B368F3D8982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF84B3-7429-411F-997A-9EDBD689CCFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -127,6 +127,46 @@
   </si>
   <si>
     <t>{{TotalTaxAmount}}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Từ ngày</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: {{Start}} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>đến ngày</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: {{End}}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -140,7 +180,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,21 +268,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -264,21 +295,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,42 +600,42 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="12" width="16.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="15" style="2" customWidth="1"/>
+    <col min="11" max="12" width="16.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
@@ -617,128 +655,130 @@
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
@@ -751,8 +791,8 @@
       <c r="K10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -760,8 +800,8 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A8:K8"/>
-    <mergeCell ref="E5:G5"/>
     <mergeCell ref="A4:M4"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
